--- a/assets/documents/Tavlor dokumentation Fredrik Beckman.xlsx
+++ b/assets/documents/Tavlor dokumentation Fredrik Beckman.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://skyddsrum-my.sharepoint.com/personal/fredrik_torfinans_se/Documents/Tor Finans/Personligt/Antigravity Git/artbybeckman/assets/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_C33EB2A1733FC0894CBFDC48FE5AB994780BBB11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4549D402-0E2B-4C13-9540-049704C1730C}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_C33EB2A1733FC0894CBFDC48FE5AB994780BBB11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1A9A936-13FE-4DF7-99CC-7869AF40BCDD}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="25996" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2827,7 +2827,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="577">
   <si>
     <t>Tavlor</t>
   </si>
@@ -4555,6 +4555,9 @@
   </si>
   <si>
     <t>Akrylfärg, lim, glitter, smycken</t>
+  </si>
+  <si>
+    <t>December 2025</t>
   </si>
 </sst>
 </file>
@@ -4564,7 +4567,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4835,6 +4838,13 @@
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -4998,7 +5008,7 @@
     <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="17" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5221,7 +5231,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E267" sqref="E267"/>
+      <selection pane="bottomLeft" activeCell="E270" sqref="E270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13502,8 +13512,8 @@
       <c r="C269" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E269" s="65">
-        <v>45992</v>
+      <c r="E269" s="65" t="s">
+        <v>576</v>
       </c>
       <c r="F269" s="58" t="s">
         <v>525</v>
